--- a/Project_Management/Sprint2/Burndown chart.xlsx
+++ b/Project_Management/Sprint2/Burndown chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09109E8-8F60-419E-8F5B-F015D4BC4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A4559-7FCE-4A90-BE62-4017F1068EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -88,6 +88,15 @@
   <si>
     <t>Decompor os Epics em User Stories mais específicas</t>
   </si>
+  <si>
+    <t>Analisar código dado</t>
+  </si>
+  <si>
+    <t>Jogar FreeCol</t>
+  </si>
+  <si>
+    <t>Perceber funcionalidades do FreeCol</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +106,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +130,14 @@
     <font>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,10 +825,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -919,28 +939,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,25 +1029,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85714285714285721</c:v>
+                  <c:v>10.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>8.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>6.8571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4285714285714286</c:v>
+                  <c:v>5.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28571428571428581</c:v>
+                  <c:v>3.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1428571428571429</c:v>
+                  <c:v>1.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2199,7 +2219,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2338,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
@@ -2364,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="34">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
@@ -2386,7 +2406,12 @@
       <c r="B8" s="31">
         <v>3</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -2407,9 +2432,18 @@
       <c r="B9" s="31">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="14"/>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="34">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2428,10 +2462,19 @@
       <c r="B10" s="31">
         <v>5</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="53"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -2649,11 +2692,11 @@
       </c>
       <c r="E20" s="21">
         <f t="shared" ref="E20:K20" si="0">SUM(E6:E19)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
@@ -2692,35 +2735,35 @@
       <c r="C21" s="42"/>
       <c r="D21" s="24">
         <f>SUM(D6:D20)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" ref="E21:K21" si="1">D21-SUM(E6:E19)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2738,31 +2781,31 @@
       <c r="C22" s="44"/>
       <c r="D22" s="26">
         <f>D21</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E22" s="27">
         <f>$D$22-($D$22/7*1)</f>
-        <v>0.85714285714285721</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="F22" s="1">
         <f>$D$22-($D$22/7*2)</f>
-        <v>0.7142857142857143</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="G22" s="1">
         <f>$D$22-($D$22/7*3)</f>
-        <v>0.5714285714285714</v>
+        <v>6.8571428571428577</v>
       </c>
       <c r="H22" s="1">
         <f>$D$22-($D$22/7*4)</f>
-        <v>0.4285714285714286</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="I22" s="1">
         <f>$D$22-($D$22/7*5)</f>
-        <v>0.28571428571428581</v>
+        <v>3.4285714285714288</v>
       </c>
       <c r="J22" s="1">
         <f>$D$22-($D$22/7*6)</f>
-        <v>0.1428571428571429</v>
+        <v>1.7142857142857153</v>
       </c>
       <c r="K22" s="1">
         <f>$D$22-($D$22/7*7)</f>

--- a/Project_Management/Sprint2/Burndown chart.xlsx
+++ b/Project_Management/Sprint2/Burndown chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A4559-7FCE-4A90-BE62-4017F1068EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF03267-04E3-440F-8814-80E0B4DE800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Perceber funcionalidades do FreeCol</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -650,6 +653,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,9 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,10 +834,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -948,19 +951,19 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,7 +2222,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,52 +2236,52 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2315,8 +2318,8 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2392,9 @@
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2414,8 +2419,12 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2444,7 +2453,9 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2474,7 +2485,9 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="37">
+        <v>1</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -2683,10 +2696,10 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="3">
         <v>0</v>
       </c>
@@ -2700,11 +2713,11 @@
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
@@ -2729,10 +2742,10 @@
       <c r="T20" s="29"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="24">
         <f>SUM(D6:D20)</f>
         <v>12</v>
@@ -2747,23 +2760,23 @@
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2775,10 +2788,10 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="26">
         <f>D21</f>
         <v>12</v>

--- a/Project_Management/Sprint2/Burndown chart.xlsx
+++ b/Project_Management/Sprint2/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF03267-04E3-440F-8814-80E0B4DE800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D275901-F913-4505-8151-C4F4669980FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -843,7 +843,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -960,10 +960,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2222,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,7 +2367,9 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2395,8 +2397,12 @@
       <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -2426,7 +2432,9 @@
         <v>1</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -2725,7 +2733,7 @@
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="0"/>
@@ -2772,11 +2780,11 @@
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>

--- a/Project_Management/Sprint2/Burndown chart.xlsx
+++ b/Project_Management/Sprint2/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D275901-F913-4505-8151-C4F4669980FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8808B7-04B8-4BCC-8760-A514AE75B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Perceber funcionalidades do FreeCol</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -837,16 +834,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,16 +951,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2219,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,11 +2364,13 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
-        <v>20</v>
+      <c r="I6" s="10">
+        <v>0.5</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10">
+        <v>0.5</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -2394,16 +2393,18 @@
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="14"/>
+      <c r="H7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.5</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -2725,19 +2726,19 @@
       </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -2772,19 +2773,19 @@
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
